--- a/orisrc/main/resources/template.xlsx
+++ b/orisrc/main/resources/template.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaowenjuan\IdeaProjects\excel-email\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylf/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00168D23-FAD1-4DB2-B054-622581912E98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840"/>
   </bookViews>
   <sheets>
     <sheet name="社会保险基数确认单" sheetId="1" r:id="rId1"/>
     <sheet name="住房公积金基数确认单" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">社会保险基数确认单!$A$1:$Q$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">社会保险基数确认单!$A$1:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">社会保险基数确认单!$A$1:$R$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">社会保险基数确认单!$A$1:$R$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">住房公积金基数确认单!$A$1:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>养/失</t>
   </si>
@@ -69,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>北控三兴2018年7月至2019年6月员工社会保险基数确认单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>个人部分缴纳及扣款明细（元/月）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,13 +194,32 @@
   </si>
   <si>
     <t>t.total}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤</t>
+    <rPh sb="0" eb="1">
+      <t>gong shang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sbjsGongShang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北控三兴2019年7月至2020年6月员工社会保险基数确认单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北控三兴2019年7月至2020年6月员工住房公积金基数确认单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,6 +413,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -409,6 +432,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,7 +458,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,7 +549,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -777,270 +803,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4" max="15" width="7.6328125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.6328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q4" xr:uid="{2948D400-24C3-44BF-BBA2-10647A6ADBB2}">
+  <autoFilter ref="A1:R4">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -1057,24 +1088,25 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1086,90 +1118,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5">
         <v>6596</v>
@@ -1189,15 +1220,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5">
         <v>6596</v>
